--- a/ir_tools/data_formats/meta_data_record/Record_of_MWIR1_FLIR_SC7500_6580045_Operating_Settings.xlsx
+++ b/ir_tools/data_formats/meta_data_record/Record_of_MWIR1_FLIR_SC7500_6580045_Operating_Settings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="28680" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IRCAM Velox_81kL_0102A18CH_FAST" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,13 +15,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
-    <numFmt formatCode="0.00000" numFmtId="166"/>
-    <numFmt formatCode="0.0000" numFmtId="167"/>
+  <numFmts count="2">
+    <numFmt formatCode="0.0000" numFmtId="164"/>
+    <numFmt formatCode="0.0000000" numFmtId="165"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,12 +49,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -101,21 +93,17 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -496,28 +484,28 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B6" xSplit="1" ySplit="5"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B9" xSplit="1" ySplit="5"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
-      <selection activeCell="I6" pane="bottomRight" sqref="I6"/>
+      <selection activeCell="L13" pane="bottomRight" sqref="L13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="12.6640625"/>
-    <col customWidth="1" max="2" min="2" style="6" width="11.33203125"/>
-    <col customWidth="1" max="3" min="3" style="6" width="10.88671875"/>
-    <col customWidth="1" max="4" min="4" style="6" width="10.44140625"/>
-    <col customWidth="1" max="5" min="5" style="6" width="11.5546875"/>
-    <col customWidth="1" max="6" min="6" style="6" width="8.6640625"/>
-    <col customWidth="1" max="7" min="7" style="6" width="8.21875"/>
-    <col customWidth="1" max="8" min="8" style="6" width="7.33203125"/>
-    <col customWidth="1" max="9" min="9" style="6" width="22"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="6" width="10"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="6" width="18.88671875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="6" width="9.33203125"/>
-    <col customWidth="1" max="13" min="13" style="6" width="38.44140625"/>
-    <col customWidth="1" max="14" min="14" style="6" width="82.109375"/>
+    <col customWidth="1" max="1" min="1" style="9" width="12.7109375"/>
+    <col customWidth="1" max="2" min="2" style="5" width="11.28515625"/>
+    <col customWidth="1" max="3" min="3" style="9" width="10.85546875"/>
+    <col customWidth="1" max="4" min="4" style="9" width="10.42578125"/>
+    <col customWidth="1" max="5" min="5" style="9" width="11.5703125"/>
+    <col customWidth="1" max="6" min="6" style="9" width="8.7109375"/>
+    <col customWidth="1" max="7" min="7" style="9" width="8.28515625"/>
+    <col customWidth="1" max="8" min="8" style="9" width="7.28515625"/>
+    <col customWidth="1" max="9" min="9" style="5" width="22"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="18.85546875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="9.28515625"/>
+    <col customWidth="1" max="13" min="13" style="5" width="38.42578125"/>
+    <col customWidth="1" max="14" min="14" style="5" width="82.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -559,7 +547,7 @@
           <t># Control PC</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>G0522</t>
         </is>
@@ -570,80 +558,80 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28.8" r="5" s="4">
-      <c r="A5" s="10" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="28.9" r="5" s="4">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Shot</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>Integration time [ms]</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>Frame rate [Hz]</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>Frame interval [us]</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>Max frames</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>Duration [s]</t>
         </is>
       </c>
-      <c r="H5" s="10" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>t_start [s]</t>
         </is>
       </c>
-      <c r="I5" s="10" t="inlineStr">
+      <c r="I5" s="7" t="inlineStr">
         <is>
           <t>detector_window [top, left, height, width]</t>
         </is>
       </c>
-      <c r="J5" s="10" t="inlineStr">
+      <c r="J5" s="7" t="inlineStr">
         <is>
           <t>Lens [mm]</t>
         </is>
       </c>
-      <c r="K5" s="10" t="inlineStr">
+      <c r="K5" s="7" t="inlineStr">
         <is>
           <t>View</t>
         </is>
       </c>
-      <c r="L5" s="10" t="inlineStr">
+      <c r="L5" s="7" t="inlineStr">
         <is>
           <t>ND_filter</t>
         </is>
       </c>
-      <c r="M5" s="10" t="inlineStr">
+      <c r="M5" s="7" t="inlineStr">
         <is>
           <t>Issues</t>
         </is>
       </c>
-      <c r="N5" s="10" t="inlineStr">
+      <c r="N5" s="7" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="6" t="n">
         <v>43930</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -653,16 +641,15 @@
         <v>0.001</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" s="14">
-        <f>1/D6</f>
-        <v/>
+        <v>382.00015280006</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0.002617800000000008</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <f>F6*E6</f>
         <v/>
       </c>
@@ -702,7 +689,7 @@
       <c r="O6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="6" t="n">
         <v>43931</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -714,14 +701,13 @@
       <c r="D7" t="n">
         <v>382.00015280006</v>
       </c>
-      <c r="E7" s="14">
-        <f>1/D7</f>
-        <v/>
+      <c r="E7" s="11" t="n">
+        <v>0.002617800000000008</v>
       </c>
       <c r="F7" t="n">
         <v>380</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <f>F7*E7</f>
         <v/>
       </c>
@@ -761,7 +747,7 @@
       <c r="O7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="6" t="n">
         <v>43937</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -771,16 +757,15 @@
         <v>0.001</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" s="14">
-        <f>1/D8</f>
-        <v/>
+        <v>382.00015280006</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>0.002617800000000008</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>756</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <f>F8*E8</f>
         <v/>
       </c>
@@ -812,11 +797,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="N8" s="4" t="n"/>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="O8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="6" t="n">
         <v>43938</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -828,14 +817,13 @@
       <c r="D9" t="n">
         <v>382.00015280006</v>
       </c>
-      <c r="E9" s="14">
-        <f>1/D9</f>
-        <v/>
+      <c r="E9" s="11" t="n">
+        <v>0.002617800000000008</v>
       </c>
       <c r="F9" t="n">
         <v>744</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="9">
         <f>F9*E9</f>
         <v/>
       </c>
@@ -867,11 +855,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="N9" s="4" t="n"/>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="O9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="6" t="n">
         <v>43939</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -883,14 +875,13 @@
       <c r="D10" t="n">
         <v>382.00015280006</v>
       </c>
-      <c r="E10" s="14">
-        <f>1/D10</f>
-        <v/>
+      <c r="E10" s="11" t="n">
+        <v>0.002617800000000008</v>
       </c>
       <c r="F10" t="n">
         <v>750</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <f>F10*E10</f>
         <v/>
       </c>
@@ -917,12 +908,20 @@
           <t>4.1-5.0um</t>
         </is>
       </c>
-      <c r="M10" s="4" t="n"/>
-      <c r="N10" s="5" t="n"/>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="O10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="6" t="n">
         <v>43952</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -934,14 +933,13 @@
       <c r="D11" t="n">
         <v>382.00015280006</v>
       </c>
-      <c r="E11" s="14">
-        <f>1/D11</f>
-        <v/>
+      <c r="E11" s="11" t="n">
+        <v>0.002617800000000008</v>
       </c>
       <c r="F11" t="n">
         <v>746</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <f>F11*E11</f>
         <v/>
       </c>
@@ -968,12 +966,20 @@
           <t>4.1-5.0um</t>
         </is>
       </c>
-      <c r="M11" s="4" t="n"/>
-      <c r="N11" s="4" t="n"/>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="O11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="6" t="n">
         <v>43953</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -985,14 +991,13 @@
       <c r="D12" t="n">
         <v>382.00015280006</v>
       </c>
-      <c r="E12" s="14">
-        <f>1/D12</f>
-        <v/>
+      <c r="E12" s="11" t="n">
+        <v>0.002617800000000008</v>
       </c>
       <c r="F12" t="n">
         <v>766</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <f>F12*E12</f>
         <v/>
       </c>
@@ -1019,271 +1024,230 @@
           <t>4.1-5.0um</t>
         </is>
       </c>
-      <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="O12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="2" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="C13" s="12" t="n"/>
       <c r="M13" s="4" t="n"/>
       <c r="N13" s="4" t="n"/>
       <c r="O13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="2" t="n"/>
-      <c r="E14" s="8" t="n"/>
       <c r="M14" s="4" t="n"/>
       <c r="N14" s="4" t="n"/>
       <c r="O14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="2" t="n"/>
-      <c r="E15" s="8" t="n"/>
       <c r="M15" s="4" t="n"/>
       <c r="N15" s="4" t="n"/>
       <c r="O15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="2" t="n"/>
-      <c r="E16" s="8" t="n"/>
       <c r="M16" s="4" t="n"/>
       <c r="N16" s="4" t="n"/>
       <c r="O16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n"/>
-      <c r="E17" s="8" t="n"/>
       <c r="M17" s="4" t="n"/>
       <c r="N17" s="4" t="n"/>
       <c r="O17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="2" t="n"/>
-      <c r="E18" s="8" t="n"/>
       <c r="M18" s="4" t="n"/>
       <c r="N18" s="4" t="n"/>
       <c r="O18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="2" t="n"/>
-      <c r="E19" s="8" t="n"/>
       <c r="M19" s="4" t="n"/>
       <c r="N19" s="4" t="n"/>
       <c r="O19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="2" t="n"/>
-      <c r="E20" s="8" t="n"/>
       <c r="M20" s="4" t="n"/>
       <c r="N20" s="4" t="n"/>
       <c r="O20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="2" t="n"/>
-      <c r="E21" s="8" t="n"/>
       <c r="M21" s="4" t="n"/>
       <c r="N21" s="4" t="n"/>
       <c r="O21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="2" t="n"/>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="3" t="n"/>
+      <c r="D22" s="12" t="n"/>
+      <c r="F22" s="12" t="n"/>
       <c r="M22" s="4" t="n"/>
       <c r="N22" s="3" t="n"/>
       <c r="O22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="2" t="n"/>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="9" t="n"/>
-      <c r="F23" s="3" t="n"/>
+      <c r="D23" s="12" t="n"/>
+      <c r="F23" s="12" t="n"/>
       <c r="M23" s="4" t="n"/>
       <c r="N23" s="3" t="n"/>
       <c r="O23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="2" t="n"/>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="9" t="n"/>
+      <c r="D24" s="12" t="n"/>
       <c r="M24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="2" t="n"/>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="9" t="n"/>
+      <c r="D25" s="12" t="n"/>
       <c r="M25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="2" t="n"/>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="9" t="n"/>
+      <c r="C26" s="12" t="n"/>
+      <c r="D26" s="12" t="n"/>
       <c r="M26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="2" t="n"/>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="9" t="n"/>
+      <c r="D27" s="12" t="n"/>
       <c r="M27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="2" t="n"/>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="9" t="n"/>
-      <c r="F28" s="3" t="n"/>
+      <c r="D28" s="12" t="n"/>
+      <c r="F28" s="12" t="n"/>
       <c r="M28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="2" t="n"/>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="9" t="n"/>
-      <c r="F29" s="3" t="n"/>
+      <c r="D29" s="12" t="n"/>
+      <c r="F29" s="12" t="n"/>
       <c r="M29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="2" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="9" t="n"/>
-      <c r="F30" s="3" t="n"/>
+      <c r="D30" s="12" t="n"/>
+      <c r="F30" s="12" t="n"/>
       <c r="M30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="2" t="n"/>
-      <c r="D31" s="11" t="n"/>
-      <c r="E31" s="8" t="n"/>
+      <c r="D31" s="13" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="2" t="n"/>
-      <c r="D32" s="11" t="n"/>
-      <c r="E32" s="8" t="n"/>
-      <c r="F32" s="3" t="n"/>
+      <c r="D32" s="13" t="n"/>
+      <c r="F32" s="12" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="2" t="n"/>
-      <c r="D33" s="11" t="n"/>
-      <c r="E33" s="8" t="n"/>
-      <c r="F33" s="3" t="n"/>
+      <c r="D33" s="13" t="n"/>
+      <c r="F33" s="12" t="n"/>
       <c r="M33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="2" t="n"/>
-      <c r="E34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="2" t="n"/>
-      <c r="E35" s="8" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="2" t="n"/>
-      <c r="E36" s="8" t="n"/>
-      <c r="F36" s="3" t="n"/>
+      <c r="F36" s="12" t="n"/>
       <c r="M36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="2" t="n"/>
-      <c r="E37" s="8" t="n"/>
-      <c r="F37" s="3" t="n"/>
+      <c r="F37" s="12" t="n"/>
       <c r="M37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="B38" s="2" t="n"/>
-      <c r="E38" s="8" t="n"/>
-      <c r="F38" s="3" t="n"/>
+      <c r="F38" s="12" t="n"/>
       <c r="M38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="B39" s="2" t="n"/>
-      <c r="E39" s="8" t="n"/>
-      <c r="F39" s="3" t="n"/>
+      <c r="F39" s="12" t="n"/>
       <c r="M39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="B40" s="2" t="n"/>
-      <c r="E40" s="8" t="n"/>
-      <c r="F40" s="3" t="n"/>
+      <c r="F40" s="12" t="n"/>
       <c r="M40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="2" t="n"/>
-      <c r="E41" s="8" t="n"/>
-      <c r="F41" s="3" t="n"/>
+      <c r="F41" s="12" t="n"/>
       <c r="M41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="2" t="n"/>
-      <c r="E42" s="8" t="n"/>
-      <c r="F42" s="3" t="n"/>
+      <c r="F42" s="12" t="n"/>
       <c r="M42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="B43" s="2" t="n"/>
-      <c r="E43" s="8" t="n"/>
-      <c r="F43" s="3" t="n"/>
+      <c r="F43" s="12" t="n"/>
       <c r="M43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="B44" s="2" t="n"/>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="3" t="n"/>
+      <c r="F44" s="12" t="n"/>
       <c r="M44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="B45" s="2" t="n"/>
-      <c r="E45" s="8" t="n"/>
     </row>
     <row r="46">
       <c r="B46" s="2" t="n"/>
-      <c r="E46" s="8" t="n"/>
-      <c r="F46" s="3" t="n"/>
+      <c r="F46" s="12" t="n"/>
       <c r="M46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="B47" s="2" t="n"/>
-      <c r="E47" s="8" t="n"/>
-      <c r="F47" s="3" t="n"/>
+      <c r="F47" s="12" t="n"/>
       <c r="M47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="B48" s="2" t="n"/>
-      <c r="D48" s="7" t="n"/>
     </row>
     <row r="49">
       <c r="B49" s="2" t="n"/>
-      <c r="D49" s="7" t="n"/>
-      <c r="F49" s="8" t="n"/>
     </row>
     <row r="50">
       <c r="B50" s="2" t="n"/>
-      <c r="D50" s="7" t="n"/>
-      <c r="F50" s="8" t="n"/>
     </row>
     <row r="51">
       <c r="B51" s="2" t="n"/>
-      <c r="D51" s="7" t="n"/>
-      <c r="F51" s="8" t="n"/>
     </row>
     <row r="52">
       <c r="B52" s="2" t="n"/>
-      <c r="D52" s="7" t="n"/>
-      <c r="F52" s="8" t="n"/>
     </row>
     <row r="53">
       <c r="B53" s="2" t="n"/>
-      <c r="D53" s="7" t="n"/>
-      <c r="F53" s="8" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="2" t="n"/>
-      <c r="D54" s="7" t="n"/>
-      <c r="F54" s="8" t="n"/>
     </row>
     <row r="55">
       <c r="B55" s="2" t="n"/>
-      <c r="D55" s="7" t="n"/>
-      <c r="F55" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ir_tools/data_formats/meta_data_record/Record_of_MWIR1_FLIR_SC7500_6580045_Operating_Settings.xlsx
+++ b/ir_tools/data_formats/meta_data_record/Record_of_MWIR1_FLIR_SC7500_6580045_Operating_Settings.xlsx
@@ -484,28 +484,28 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B9" xSplit="1" ySplit="5"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B6" xSplit="1" ySplit="5"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
-      <selection activeCell="L13" pane="bottomRight" sqref="L13:N13"/>
+      <selection activeCell="C8" pane="bottomRight" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="12.7109375"/>
-    <col customWidth="1" max="2" min="2" style="5" width="11.28515625"/>
-    <col customWidth="1" max="3" min="3" style="9" width="10.85546875"/>
-    <col customWidth="1" max="4" min="4" style="9" width="10.42578125"/>
-    <col customWidth="1" max="5" min="5" style="9" width="11.5703125"/>
-    <col customWidth="1" max="6" min="6" style="9" width="8.7109375"/>
-    <col customWidth="1" max="7" min="7" style="9" width="8.28515625"/>
-    <col customWidth="1" max="8" min="8" style="9" width="7.28515625"/>
+    <col customWidth="1" max="1" min="1" style="9" width="12.6640625"/>
+    <col customWidth="1" max="2" min="2" style="5" width="11.33203125"/>
+    <col customWidth="1" max="3" min="3" style="9" width="10.88671875"/>
+    <col customWidth="1" max="4" min="4" style="9" width="10.44140625"/>
+    <col customWidth="1" max="5" min="5" style="9" width="11.5546875"/>
+    <col customWidth="1" max="6" min="6" style="9" width="8.6640625"/>
+    <col customWidth="1" max="7" min="7" style="9" width="8.33203125"/>
+    <col customWidth="1" max="8" min="8" style="9" width="7.33203125"/>
     <col customWidth="1" max="9" min="9" style="5" width="22"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="5" width="10"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="18.85546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="9.28515625"/>
-    <col customWidth="1" max="13" min="13" style="5" width="38.42578125"/>
-    <col customWidth="1" max="14" min="14" style="5" width="82.140625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="5" width="18.88671875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="5" width="9.33203125"/>
+    <col customWidth="1" max="13" min="13" style="5" width="38.44140625"/>
+    <col customWidth="1" max="14" min="14" style="5" width="82.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -558,7 +558,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28.9" r="5" s="4">
+    <row customFormat="1" customHeight="1" ht="28.95" r="5" s="4">
       <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Shot</t>
@@ -571,7 +571,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Integration time [ms]</t>
+          <t>Integration time [us]</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -638,7 +638,7 @@
         <v>44328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
         <v>382.00015280006</v>
@@ -696,7 +696,7 @@
         <v>44328</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
         <v>382.00015280006</v>
@@ -753,8 +753,8 @@
       <c r="B8" s="2" t="n">
         <v>44328</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>0.001</v>
+      <c r="C8" t="n">
+        <v>100</v>
       </c>
       <c r="D8" t="n">
         <v>382.00015280006</v>
@@ -811,8 +811,8 @@
       <c r="B9" s="2" t="n">
         <v>44328</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>0.001</v>
+      <c r="C9" t="n">
+        <v>100</v>
       </c>
       <c r="D9" t="n">
         <v>382.00015280006</v>
@@ -869,8 +869,8 @@
       <c r="B10" s="2" t="n">
         <v>44329</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>0.001</v>
+      <c r="C10" t="n">
+        <v>100</v>
       </c>
       <c r="D10" t="n">
         <v>382.00015280006</v>
@@ -927,8 +927,8 @@
       <c r="B11" s="2" t="n">
         <v>44329</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>0.001</v>
+      <c r="C11" t="n">
+        <v>100</v>
       </c>
       <c r="D11" t="n">
         <v>382.00015280006</v>
@@ -986,7 +986,7 @@
         <v>44329</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.001</v>
+        <v>300</v>
       </c>
       <c r="D12" t="n">
         <v>382.00015280006</v>
